--- a/Assets/Excel/Unit.xlsx
+++ b/Assets/Excel/Unit.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\RPG-GameClient\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C976B8-CF67-4978-B93D-3BFCE13EDE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0C5F57-8680-472B-8F9A-56BAA2441471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3630" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UnitTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>生命上限</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -55,6 +40,21 @@
   </si>
   <si>
     <t>Tom</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,36 +394,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>300</v>
